--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Hspg2-Itgb1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Hspg2-Itgb1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>109.868896830711</v>
+        <v>139.028825</v>
       </c>
       <c r="H2">
-        <v>109.868896830711</v>
+        <v>417.086475</v>
       </c>
       <c r="I2">
-        <v>0.3938771950501868</v>
+        <v>0.428090758569687</v>
       </c>
       <c r="J2">
-        <v>0.3938771950501868</v>
+        <v>0.428090758569687</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N2">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P2">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q2">
-        <v>8023.602852613517</v>
+        <v>13179.91189470508</v>
       </c>
       <c r="R2">
-        <v>8023.602852613517</v>
+        <v>118619.2070523457</v>
       </c>
       <c r="S2">
-        <v>0.05457680917560977</v>
+        <v>0.07200330613326446</v>
       </c>
       <c r="T2">
-        <v>0.05457680917560977</v>
+        <v>0.07200330613326446</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>109.868896830711</v>
+        <v>139.028825</v>
       </c>
       <c r="H3">
-        <v>109.868896830711</v>
+        <v>417.086475</v>
       </c>
       <c r="I3">
-        <v>0.3938771950501868</v>
+        <v>0.428090758569687</v>
       </c>
       <c r="J3">
-        <v>0.3938771950501868</v>
+        <v>0.428090758569687</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N3">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P3">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q3">
-        <v>15918.86786554824</v>
+        <v>20248.34752294553</v>
       </c>
       <c r="R3">
-        <v>15918.86786554824</v>
+        <v>182235.1277065098</v>
       </c>
       <c r="S3">
-        <v>0.1082806601658729</v>
+        <v>0.1106189462444808</v>
       </c>
       <c r="T3">
-        <v>0.1082806601658729</v>
+        <v>0.1106189462444808</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>109.868896830711</v>
+        <v>139.028825</v>
       </c>
       <c r="H4">
-        <v>109.868896830711</v>
+        <v>417.086475</v>
       </c>
       <c r="I4">
-        <v>0.3938771950501868</v>
+        <v>0.428090758569687</v>
       </c>
       <c r="J4">
-        <v>0.3938771950501868</v>
+        <v>0.428090758569687</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N4">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P4">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q4">
-        <v>7473.255879117454</v>
+        <v>10117.95769002113</v>
       </c>
       <c r="R4">
-        <v>7473.255879117454</v>
+        <v>91061.6192101902</v>
       </c>
       <c r="S4">
-        <v>0.05083333105180341</v>
+        <v>0.05527551404123487</v>
       </c>
       <c r="T4">
-        <v>0.05083333105180341</v>
+        <v>0.05527551404123487</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>109.868896830711</v>
+        <v>139.028825</v>
       </c>
       <c r="H5">
-        <v>109.868896830711</v>
+        <v>417.086475</v>
       </c>
       <c r="I5">
-        <v>0.3938771950501868</v>
+        <v>0.428090758569687</v>
       </c>
       <c r="J5">
-        <v>0.3938771950501868</v>
+        <v>0.428090758569687</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N5">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P5">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q5">
-        <v>8388.100787017305</v>
+        <v>10619.87019276192</v>
       </c>
       <c r="R5">
-        <v>8388.100787017305</v>
+        <v>95578.83173485726</v>
       </c>
       <c r="S5">
-        <v>0.05705613605360695</v>
+        <v>0.05801751716505516</v>
       </c>
       <c r="T5">
-        <v>0.05705613605360695</v>
+        <v>0.05801751716505518</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>109.868896830711</v>
+        <v>139.028825</v>
       </c>
       <c r="H6">
-        <v>109.868896830711</v>
+        <v>417.086475</v>
       </c>
       <c r="I6">
-        <v>0.3938771950501868</v>
+        <v>0.428090758569687</v>
       </c>
       <c r="J6">
-        <v>0.3938771950501868</v>
+        <v>0.428090758569687</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N6">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O6">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P6">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q6">
-        <v>6263.814603885722</v>
+        <v>8089.65439098895</v>
       </c>
       <c r="R6">
-        <v>6263.814603885722</v>
+        <v>72806.88951890054</v>
       </c>
       <c r="S6">
-        <v>0.04260667191875225</v>
+        <v>0.04419467036503421</v>
       </c>
       <c r="T6">
-        <v>0.04260667191875225</v>
+        <v>0.04419467036503422</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>109.868896830711</v>
+        <v>139.028825</v>
       </c>
       <c r="H7">
-        <v>109.868896830711</v>
+        <v>417.086475</v>
       </c>
       <c r="I7">
-        <v>0.3938771950501868</v>
+        <v>0.428090758569687</v>
       </c>
       <c r="J7">
-        <v>0.3938771950501868</v>
+        <v>0.428090758569687</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N7">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P7">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q7">
-        <v>11838.16513980987</v>
+        <v>16104.52791124396</v>
       </c>
       <c r="R7">
-        <v>11838.16513980987</v>
+        <v>144940.7512011956</v>
       </c>
       <c r="S7">
-        <v>0.08052358668454149</v>
+        <v>0.08798080462061755</v>
       </c>
       <c r="T7">
-        <v>0.08052358668454149</v>
+        <v>0.08798080462061755</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>104.417461478361</v>
+        <v>105.0686953333333</v>
       </c>
       <c r="H8">
-        <v>104.417461478361</v>
+        <v>315.206086</v>
       </c>
       <c r="I8">
-        <v>0.3743339382457656</v>
+        <v>0.3235223881606854</v>
       </c>
       <c r="J8">
-        <v>0.3743339382457656</v>
+        <v>0.3235223881606855</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N8">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O8">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P8">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q8">
-        <v>7625.490616068996</v>
+        <v>9960.496662364396</v>
       </c>
       <c r="R8">
-        <v>7625.490616068996</v>
+        <v>89644.46996127958</v>
       </c>
       <c r="S8">
-        <v>0.05186883671442443</v>
+        <v>0.05441528715436309</v>
       </c>
       <c r="T8">
-        <v>0.05186883671442443</v>
+        <v>0.05441528715436311</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>104.417461478361</v>
+        <v>105.0686953333333</v>
       </c>
       <c r="H9">
-        <v>104.417461478361</v>
+        <v>315.206086</v>
       </c>
       <c r="I9">
-        <v>0.3743339382457656</v>
+        <v>0.3235223881606854</v>
       </c>
       <c r="J9">
-        <v>0.3743339382457656</v>
+        <v>0.3235223881606855</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N9">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P9">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q9">
-        <v>15129.01121316597</v>
+        <v>15302.34796195551</v>
       </c>
       <c r="R9">
-        <v>15129.01121316597</v>
+        <v>137721.1316575996</v>
       </c>
       <c r="S9">
-        <v>0.1029080293683364</v>
+        <v>0.08359840746014888</v>
       </c>
       <c r="T9">
-        <v>0.1029080293683364</v>
+        <v>0.0835984074601489</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>104.417461478361</v>
+        <v>105.0686953333333</v>
       </c>
       <c r="H10">
-        <v>104.417461478361</v>
+        <v>315.206086</v>
       </c>
       <c r="I10">
-        <v>0.3743339382457656</v>
+        <v>0.3235223881606854</v>
       </c>
       <c r="J10">
-        <v>0.3743339382457656</v>
+        <v>0.3235223881606855</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N10">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O10">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P10">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q10">
-        <v>7102.450560489821</v>
+        <v>7646.476289563604</v>
       </c>
       <c r="R10">
-        <v>7102.450560489821</v>
+        <v>68818.28660607243</v>
       </c>
       <c r="S10">
-        <v>0.04831110113990671</v>
+        <v>0.04177353972596615</v>
       </c>
       <c r="T10">
-        <v>0.04831110113990671</v>
+        <v>0.04177353972596616</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>104.417461478361</v>
+        <v>105.0686953333333</v>
       </c>
       <c r="H11">
-        <v>104.417461478361</v>
+        <v>315.206086</v>
       </c>
       <c r="I11">
-        <v>0.3743339382457656</v>
+        <v>0.3235223881606854</v>
       </c>
       <c r="J11">
-        <v>0.3743339382457656</v>
+        <v>0.3235223881606855</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N11">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O11">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P11">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q11">
-        <v>7971.903023241824</v>
+        <v>8025.788218830518</v>
       </c>
       <c r="R11">
-        <v>7971.903023241824</v>
+        <v>72232.09396947468</v>
       </c>
       <c r="S11">
-        <v>0.05422514524434834</v>
+        <v>0.04384576245258218</v>
       </c>
       <c r="T11">
-        <v>0.05422514524434834</v>
+        <v>0.04384576245258219</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>104.417461478361</v>
+        <v>105.0686953333333</v>
       </c>
       <c r="H12">
-        <v>104.417461478361</v>
+        <v>315.206086</v>
       </c>
       <c r="I12">
-        <v>0.3743339382457656</v>
+        <v>0.3235223881606854</v>
       </c>
       <c r="J12">
-        <v>0.3743339382457656</v>
+        <v>0.3235223881606855</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N12">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O12">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P12">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q12">
-        <v>5953.018906857808</v>
+        <v>6113.620197529398</v>
       </c>
       <c r="R12">
-        <v>5953.018906857808</v>
+        <v>55022.58177776459</v>
       </c>
       <c r="S12">
-        <v>0.04049262941678967</v>
+        <v>0.0333993785529071</v>
       </c>
       <c r="T12">
-        <v>0.04049262941678967</v>
+        <v>0.03339937855290712</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>104.417461478361</v>
+        <v>105.0686953333333</v>
       </c>
       <c r="H13">
-        <v>104.417461478361</v>
+        <v>315.206086</v>
       </c>
       <c r="I13">
-        <v>0.3743339382457656</v>
+        <v>0.3235223881606854</v>
       </c>
       <c r="J13">
-        <v>0.3743339382457656</v>
+        <v>0.3235223881606855</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N13">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O13">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P13">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q13">
-        <v>11250.78332555943</v>
+        <v>12170.72601019</v>
       </c>
       <c r="R13">
-        <v>11250.78332555943</v>
+        <v>109536.53409171</v>
       </c>
       <c r="S13">
-        <v>0.07652819636195998</v>
+        <v>0.06649001281471804</v>
       </c>
       <c r="T13">
-        <v>0.07652819636195998</v>
+        <v>0.06649001281471804</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.170588326155078</v>
+        <v>0.2092613333333333</v>
       </c>
       <c r="H14">
-        <v>0.170588326155078</v>
+        <v>0.6277839999999999</v>
       </c>
       <c r="I14">
-        <v>0.0006115548016996843</v>
+        <v>0.0006443472634251982</v>
       </c>
       <c r="J14">
-        <v>0.0006115548016996843</v>
+        <v>0.0006443472634251983</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N14">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O14">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P14">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q14">
-        <v>12.45787497502073</v>
+        <v>19.83794322006133</v>
       </c>
       <c r="R14">
-        <v>12.45787497502073</v>
+        <v>178.541488980552</v>
       </c>
       <c r="S14">
-        <v>8.473887326362922E-05</v>
+        <v>0.0001083768624661475</v>
       </c>
       <c r="T14">
-        <v>8.473887326362922E-05</v>
+        <v>0.0001083768624661476</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.170588326155078</v>
+        <v>0.2092613333333333</v>
       </c>
       <c r="H15">
-        <v>0.170588326155078</v>
+        <v>0.6277839999999999</v>
       </c>
       <c r="I15">
-        <v>0.0006115548016996843</v>
+        <v>0.0006443472634251982</v>
       </c>
       <c r="J15">
-        <v>0.0006115548016996843</v>
+        <v>0.0006443472634251983</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N15">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P15">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q15">
-        <v>24.71648575530855</v>
+        <v>30.47710574011021</v>
       </c>
       <c r="R15">
-        <v>24.71648575530855</v>
+        <v>274.2939516609919</v>
       </c>
       <c r="S15">
-        <v>0.0001681223449537711</v>
+        <v>0.0001664997757339054</v>
       </c>
       <c r="T15">
-        <v>0.0001681223449537711</v>
+        <v>0.0001664997757339054</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.170588326155078</v>
+        <v>0.2092613333333333</v>
       </c>
       <c r="H16">
-        <v>0.170588326155078</v>
+        <v>0.6277839999999999</v>
       </c>
       <c r="I16">
-        <v>0.0006115548016996843</v>
+        <v>0.0006443472634251982</v>
       </c>
       <c r="J16">
-        <v>0.0006115548016996843</v>
+        <v>0.0006443472634251983</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N16">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O16">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P16">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q16">
-        <v>11.60337682566857</v>
+        <v>15.22919665633422</v>
       </c>
       <c r="R16">
-        <v>11.60337682566857</v>
+        <v>137.062769907008</v>
       </c>
       <c r="S16">
-        <v>7.892654888831269E-05</v>
+        <v>8.319877384387155E-05</v>
       </c>
       <c r="T16">
-        <v>7.892654888831269E-05</v>
+        <v>8.319877384387156E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.170588326155078</v>
+        <v>0.2092613333333333</v>
       </c>
       <c r="H17">
-        <v>0.170588326155078</v>
+        <v>0.6277839999999999</v>
       </c>
       <c r="I17">
-        <v>0.0006115548016996843</v>
+        <v>0.0006443472634251982</v>
       </c>
       <c r="J17">
-        <v>0.0006115548016996843</v>
+        <v>0.0006443472634251983</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N17">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O17">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P17">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q17">
-        <v>13.02381396513121</v>
+        <v>15.98465783167111</v>
       </c>
       <c r="R17">
-        <v>13.02381396513121</v>
+        <v>143.86192048504</v>
       </c>
       <c r="S17">
-        <v>8.858840879469509E-05</v>
+        <v>8.732594121146456E-05</v>
       </c>
       <c r="T17">
-        <v>8.858840879469509E-05</v>
+        <v>8.73259412114646E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.170588326155078</v>
+        <v>0.2092613333333333</v>
       </c>
       <c r="H18">
-        <v>0.170588326155078</v>
+        <v>0.6277839999999999</v>
       </c>
       <c r="I18">
-        <v>0.0006115548016996843</v>
+        <v>0.0006443472634251982</v>
       </c>
       <c r="J18">
-        <v>0.0006115548016996843</v>
+        <v>0.0006443472634251983</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N18">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O18">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P18">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q18">
-        <v>9.725533608196905</v>
+        <v>12.17626534687466</v>
       </c>
       <c r="R18">
-        <v>9.725533608196905</v>
+        <v>109.586388121872</v>
       </c>
       <c r="S18">
-        <v>6.615339787071453E-05</v>
+        <v>6.65202748193708E-05</v>
       </c>
       <c r="T18">
-        <v>6.615339787071453E-05</v>
+        <v>6.652027481937083E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.170588326155078</v>
+        <v>0.2092613333333333</v>
       </c>
       <c r="H19">
-        <v>0.170588326155078</v>
+        <v>0.6277839999999999</v>
       </c>
       <c r="I19">
-        <v>0.0006115548016996843</v>
+        <v>0.0006443472634251982</v>
       </c>
       <c r="J19">
-        <v>0.0006115548016996843</v>
+        <v>0.0006443472634251983</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N19">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O19">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P19">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q19">
-        <v>18.38056842473979</v>
+        <v>24.23997313802221</v>
       </c>
       <c r="R19">
-        <v>18.38056842473979</v>
+        <v>218.1597582421999</v>
       </c>
       <c r="S19">
-        <v>0.0001250252279285616</v>
+        <v>0.0001324256353504384</v>
       </c>
       <c r="T19">
-        <v>0.0001250252279285616</v>
+        <v>0.0001324256353504385</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.237257899283873</v>
+        <v>0.2582773333333333</v>
       </c>
       <c r="H20">
-        <v>0.237257899283873</v>
+        <v>0.774832</v>
       </c>
       <c r="I20">
-        <v>0.0008505635222443589</v>
+        <v>0.000795274933439325</v>
       </c>
       <c r="J20">
-        <v>0.0008505635222443589</v>
+        <v>0.0007952749334393251</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N20">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O20">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P20">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q20">
-        <v>17.32667945535478</v>
+        <v>24.48465271667733</v>
       </c>
       <c r="R20">
-        <v>17.32667945535478</v>
+        <v>220.361874450096</v>
       </c>
       <c r="S20">
-        <v>0.0001178566406703238</v>
+        <v>0.0001337623467599844</v>
       </c>
       <c r="T20">
-        <v>0.0001178566406703238</v>
+        <v>0.0001337623467599844</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.237257899283873</v>
+        <v>0.2582773333333333</v>
       </c>
       <c r="H21">
-        <v>0.237257899283873</v>
+        <v>0.774832</v>
       </c>
       <c r="I21">
-        <v>0.0008505635222443589</v>
+        <v>0.000795274933439325</v>
       </c>
       <c r="J21">
-        <v>0.0008505635222443589</v>
+        <v>0.0007952749334393251</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N21">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O21">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P21">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q21">
-        <v>34.37621799895781</v>
+        <v>37.61586277257955</v>
       </c>
       <c r="R21">
-        <v>34.37621799895781</v>
+        <v>338.542764953216</v>
       </c>
       <c r="S21">
-        <v>0.0002338281597894852</v>
+        <v>0.0002054995893993051</v>
       </c>
       <c r="T21">
-        <v>0.0002338281597894852</v>
+        <v>0.0002054995893993052</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.237257899283873</v>
+        <v>0.2582773333333333</v>
       </c>
       <c r="H22">
-        <v>0.237257899283873</v>
+        <v>0.774832</v>
       </c>
       <c r="I22">
-        <v>0.0008505635222443589</v>
+        <v>0.000795274933439325</v>
       </c>
       <c r="J22">
-        <v>0.0008505635222443589</v>
+        <v>0.0007952749334393251</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N22">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O22">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P22">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q22">
-        <v>16.13822511954666</v>
+        <v>18.79638363453155</v>
       </c>
       <c r="R22">
-        <v>16.13822511954666</v>
+        <v>169.167452710784</v>
       </c>
       <c r="S22">
-        <v>0.0001097727353860289</v>
+        <v>0.000102686708063593</v>
       </c>
       <c r="T22">
-        <v>0.0001097727353860289</v>
+        <v>0.000102686708063593</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.237257899283873</v>
+        <v>0.2582773333333333</v>
       </c>
       <c r="H23">
-        <v>0.237257899283873</v>
+        <v>0.774832</v>
       </c>
       <c r="I23">
-        <v>0.0008505635222443589</v>
+        <v>0.000795274933439325</v>
       </c>
       <c r="J23">
-        <v>0.0008505635222443589</v>
+        <v>0.0007952749334393251</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N23">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O23">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P23">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q23">
-        <v>18.11379952941181</v>
+        <v>19.72879907265778</v>
       </c>
       <c r="R23">
-        <v>18.11379952941181</v>
+        <v>177.55919165392</v>
       </c>
       <c r="S23">
-        <v>0.0001232106571725376</v>
+        <v>0.0001077805960023854</v>
       </c>
       <c r="T23">
-        <v>0.0001232106571725376</v>
+        <v>0.0001077805960023854</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.237257899283873</v>
+        <v>0.2582773333333333</v>
       </c>
       <c r="H24">
-        <v>0.237257899283873</v>
+        <v>0.774832</v>
       </c>
       <c r="I24">
-        <v>0.0008505635222443589</v>
+        <v>0.000795274933439325</v>
       </c>
       <c r="J24">
-        <v>0.0008505635222443589</v>
+        <v>0.0007952749334393251</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N24">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O24">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P24">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q24">
-        <v>13.5264805353553</v>
+        <v>15.02835375105066</v>
       </c>
       <c r="R24">
-        <v>13.5264805353553</v>
+        <v>135.255183759456</v>
       </c>
       <c r="S24">
-        <v>9.200756325510585E-05</v>
+        <v>8.210154699521288E-05</v>
       </c>
       <c r="T24">
-        <v>9.200756325510585E-05</v>
+        <v>8.21015469952129E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.237257899283873</v>
+        <v>0.2582773333333333</v>
       </c>
       <c r="H25">
-        <v>0.237257899283873</v>
+        <v>0.774832</v>
       </c>
       <c r="I25">
-        <v>0.0008505635222443589</v>
+        <v>0.000795274933439325</v>
       </c>
       <c r="J25">
-        <v>0.0008505635222443589</v>
+        <v>0.0007952749334393251</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N25">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O25">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P25">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q25">
-        <v>25.56408841325298</v>
+        <v>29.91778520395555</v>
       </c>
       <c r="R25">
-        <v>25.56408841325298</v>
+        <v>269.2600668356</v>
       </c>
       <c r="S25">
-        <v>0.0001738877659708775</v>
+        <v>0.0001634441462188442</v>
       </c>
       <c r="T25">
-        <v>0.0001738877659708775</v>
+        <v>0.0001634441462188443</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.278026461590785</v>
+        <v>0.4764636666666667</v>
       </c>
       <c r="H26">
-        <v>0.278026461590785</v>
+        <v>1.429391</v>
       </c>
       <c r="I26">
-        <v>0.0009967177790984854</v>
+        <v>0.001467103620376766</v>
       </c>
       <c r="J26">
-        <v>0.0009967177790984854</v>
+        <v>0.001467103620376766</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N26">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O26">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P26">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q26">
-        <v>20.3039620372188</v>
+        <v>45.16868460691367</v>
       </c>
       <c r="R26">
-        <v>20.3039620372188</v>
+        <v>406.5181614622231</v>
       </c>
       <c r="S26">
-        <v>0.0001381082142236349</v>
+        <v>0.0002467614845509747</v>
       </c>
       <c r="T26">
-        <v>0.0001381082142236349</v>
+        <v>0.0002467614845509748</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.278026461590785</v>
+        <v>0.4764636666666667</v>
       </c>
       <c r="H27">
-        <v>0.278026461590785</v>
+        <v>1.429391</v>
       </c>
       <c r="I27">
-        <v>0.0009967177790984854</v>
+        <v>0.001467103620376766</v>
       </c>
       <c r="J27">
-        <v>0.0009967177790984854</v>
+        <v>0.001467103620376766</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N27">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O27">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P27">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q27">
-        <v>40.28316141199747</v>
+        <v>69.39281767448978</v>
       </c>
       <c r="R27">
-        <v>40.28316141199747</v>
+        <v>624.535359070408</v>
       </c>
       <c r="S27">
-        <v>0.0002740073821895048</v>
+        <v>0.000379100583856968</v>
       </c>
       <c r="T27">
-        <v>0.0002740073821895048</v>
+        <v>0.0003791005838569681</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.278026461590785</v>
+        <v>0.4764636666666667</v>
       </c>
       <c r="H28">
-        <v>0.278026461590785</v>
+        <v>1.429391</v>
       </c>
       <c r="I28">
-        <v>0.0009967177790984854</v>
+        <v>0.001467103620376766</v>
       </c>
       <c r="J28">
-        <v>0.0009967177790984854</v>
+        <v>0.001467103620376766</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N28">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O28">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P28">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q28">
-        <v>18.91129290061983</v>
+        <v>34.67510582906578</v>
       </c>
       <c r="R28">
-        <v>18.91129290061983</v>
+        <v>312.075952461592</v>
       </c>
       <c r="S28">
-        <v>0.0001286352331814382</v>
+        <v>0.0001894339112552493</v>
       </c>
       <c r="T28">
-        <v>0.0001286352331814382</v>
+        <v>0.0001894339112552493</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.278026461590785</v>
+        <v>0.4764636666666667</v>
       </c>
       <c r="H29">
-        <v>0.278026461590785</v>
+        <v>1.429391</v>
       </c>
       <c r="I29">
-        <v>0.0009967177790984854</v>
+        <v>0.001467103620376766</v>
       </c>
       <c r="J29">
-        <v>0.0009967177790984854</v>
+        <v>0.001467103620376766</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N29">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O29">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P29">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q29">
-        <v>21.2263347367061</v>
+        <v>36.39520287657889</v>
       </c>
       <c r="R29">
-        <v>21.2263347367061</v>
+        <v>327.5568258892101</v>
       </c>
       <c r="S29">
-        <v>0.000144382223510163</v>
+        <v>0.0001988309903313824</v>
       </c>
       <c r="T29">
-        <v>0.000144382223510163</v>
+        <v>0.0001988309903313825</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.278026461590785</v>
+        <v>0.4764636666666667</v>
       </c>
       <c r="H30">
-        <v>0.278026461590785</v>
+        <v>1.429391</v>
       </c>
       <c r="I30">
-        <v>0.0009967177790984854</v>
+        <v>0.001467103620376766</v>
       </c>
       <c r="J30">
-        <v>0.0009967177790984854</v>
+        <v>0.001467103620376766</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N30">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O30">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P30">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q30">
-        <v>15.85076632800266</v>
+        <v>27.72393705547533</v>
       </c>
       <c r="R30">
-        <v>15.85076632800266</v>
+        <v>249.515433499278</v>
       </c>
       <c r="S30">
-        <v>0.0001078174312788673</v>
+        <v>0.0001514589128495395</v>
       </c>
       <c r="T30">
-        <v>0.0001078174312788673</v>
+        <v>0.0001514589128495395</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.278026461590785</v>
+        <v>0.4764636666666667</v>
       </c>
       <c r="H31">
-        <v>0.278026461590785</v>
+        <v>1.429391</v>
       </c>
       <c r="I31">
-        <v>0.0009967177790984854</v>
+        <v>0.001467103620376766</v>
       </c>
       <c r="J31">
-        <v>0.0009967177790984854</v>
+        <v>0.001467103620376766</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N31">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O31">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P31">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q31">
-        <v>29.95682363699418</v>
+        <v>55.19159367510277</v>
       </c>
       <c r="R31">
-        <v>29.95682363699418</v>
+        <v>496.7243430759249</v>
       </c>
       <c r="S31">
-        <v>0.0002037672947148771</v>
+        <v>0.0003015177375326523</v>
       </c>
       <c r="T31">
-        <v>0.0002037672947148771</v>
+        <v>0.0003015177375326524</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>63.9697798931344</v>
+        <v>79.72331333333334</v>
       </c>
       <c r="H32">
-        <v>63.9697798931344</v>
+        <v>239.16994</v>
       </c>
       <c r="I32">
-        <v>0.229330030601005</v>
+        <v>0.2454801274523863</v>
       </c>
       <c r="J32">
-        <v>0.229330030601005</v>
+        <v>0.2454801274523863</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>73.0288833697539</v>
+        <v>94.799851</v>
       </c>
       <c r="N32">
-        <v>73.0288833697539</v>
+        <v>284.399553</v>
       </c>
       <c r="O32">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="P32">
-        <v>0.1385630086267262</v>
+        <v>0.1681963571786457</v>
       </c>
       <c r="Q32">
-        <v>4671.64159500454</v>
+        <v>7557.758225226314</v>
       </c>
       <c r="R32">
-        <v>4671.64159500454</v>
+        <v>68019.82402703683</v>
       </c>
       <c r="S32">
-        <v>0.03177665900853445</v>
+        <v>0.04128886319724103</v>
       </c>
       <c r="T32">
-        <v>0.03177665900853445</v>
+        <v>0.04128886319724104</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>63.9697798931344</v>
+        <v>79.72331333333334</v>
       </c>
       <c r="H33">
-        <v>63.9697798931344</v>
+        <v>239.16994</v>
       </c>
       <c r="I33">
-        <v>0.229330030601005</v>
+        <v>0.2454801274523863</v>
       </c>
       <c r="J33">
-        <v>0.229330030601005</v>
+        <v>0.2454801274523863</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>144.889666909794</v>
+        <v>145.6413626666667</v>
       </c>
       <c r="N33">
-        <v>144.889666909794</v>
+        <v>436.924088</v>
       </c>
       <c r="O33">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076977</v>
       </c>
       <c r="P33">
-        <v>0.2749096965415224</v>
+        <v>0.2584006873076978</v>
       </c>
       <c r="Q33">
-        <v>9268.56010100908</v>
+        <v>11611.0119901683</v>
       </c>
       <c r="R33">
-        <v>9268.56010100908</v>
+        <v>104499.1079115147</v>
       </c>
       <c r="S33">
-        <v>0.06304504912038034</v>
+        <v>0.06343223365407785</v>
       </c>
       <c r="T33">
-        <v>0.06304504912038034</v>
+        <v>0.06343223365407787</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>63.9697798931344</v>
+        <v>79.72331333333334</v>
       </c>
       <c r="H34">
-        <v>63.9697798931344</v>
+        <v>239.16994</v>
       </c>
       <c r="I34">
-        <v>0.229330030601005</v>
+        <v>0.2454801274523863</v>
       </c>
       <c r="J34">
-        <v>0.229330030601005</v>
+        <v>0.2454801274523863</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>68.0197589553707</v>
+        <v>72.77597066666667</v>
       </c>
       <c r="N34">
-        <v>68.0197589553707</v>
+        <v>218.327912</v>
       </c>
       <c r="O34">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="P34">
-        <v>0.1290588327799135</v>
+        <v>0.1291210168281099</v>
       </c>
       <c r="Q34">
-        <v>4351.209008759121</v>
+        <v>5801.941512596142</v>
       </c>
       <c r="R34">
-        <v>4351.209008759121</v>
+        <v>52217.47361336528</v>
       </c>
       <c r="S34">
-        <v>0.02959706607074754</v>
+        <v>0.03169664366774613</v>
       </c>
       <c r="T34">
-        <v>0.02959706607074754</v>
+        <v>0.03169664366774613</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>63.9697798931344</v>
+        <v>79.72331333333334</v>
       </c>
       <c r="H35">
-        <v>63.9697798931344</v>
+        <v>239.16994</v>
       </c>
       <c r="I35">
-        <v>0.229330030601005</v>
+        <v>0.2454801274523863</v>
       </c>
       <c r="J35">
-        <v>0.229330030601005</v>
+        <v>0.2454801274523863</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>76.3464549930079</v>
+        <v>76.38610333333334</v>
       </c>
       <c r="N35">
-        <v>76.3464549930079</v>
+        <v>229.15831</v>
       </c>
       <c r="O35">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="P35">
-        <v>0.1448576784099851</v>
+        <v>0.1355262079445491</v>
       </c>
       <c r="Q35">
-        <v>4883.865921523807</v>
+        <v>6089.753250355712</v>
       </c>
       <c r="R35">
-        <v>4883.865921523807</v>
+        <v>54807.77925320141</v>
       </c>
       <c r="S35">
-        <v>0.03322021582255243</v>
+        <v>0.03326899079936652</v>
       </c>
       <c r="T35">
-        <v>0.03322021582255243</v>
+        <v>0.03326899079936653</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>63.9697798931344</v>
+        <v>79.72331333333334</v>
       </c>
       <c r="H36">
-        <v>63.9697798931344</v>
+        <v>239.16994</v>
       </c>
       <c r="I36">
-        <v>0.229330030601005</v>
+        <v>0.2454801274523863</v>
       </c>
       <c r="J36">
-        <v>0.229330030601005</v>
+        <v>0.2454801274523863</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>57.0117183713711</v>
+        <v>58.18688599999999</v>
       </c>
       <c r="N36">
-        <v>57.0117183713711</v>
+        <v>174.560658</v>
       </c>
       <c r="O36">
-        <v>0.1081724772446483</v>
+        <v>0.10323668399826</v>
       </c>
       <c r="P36">
-        <v>0.1081724772446483</v>
+        <v>0.1032366839982601</v>
       </c>
       <c r="Q36">
-        <v>3647.027075545976</v>
+        <v>4638.851344468946</v>
       </c>
       <c r="R36">
-        <v>3647.027075545976</v>
+        <v>41749.66210022051</v>
       </c>
       <c r="S36">
-        <v>0.02480719751670172</v>
+        <v>0.02534255434565461</v>
       </c>
       <c r="T36">
-        <v>0.02480719751670172</v>
+        <v>0.02534255434565461</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>63.9697798931344</v>
+        <v>79.72331333333334</v>
       </c>
       <c r="H37">
-        <v>63.9697798931344</v>
+        <v>239.16994</v>
       </c>
       <c r="I37">
-        <v>0.229330030601005</v>
+        <v>0.2454801274523863</v>
       </c>
       <c r="J37">
-        <v>0.229330030601005</v>
+        <v>0.2454801274523863</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>107.748102341015</v>
+        <v>115.8358916666667</v>
       </c>
       <c r="N37">
-        <v>107.748102341015</v>
+        <v>347.5076749999999</v>
       </c>
       <c r="O37">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="P37">
-        <v>0.2044383063972043</v>
+        <v>0.2055190467427377</v>
       </c>
       <c r="Q37">
-        <v>6892.622390657649</v>
+        <v>9234.821086587721</v>
       </c>
       <c r="R37">
-        <v>6892.622390657649</v>
+        <v>83113.38977928949</v>
       </c>
       <c r="S37">
-        <v>0.0468838430620885</v>
+        <v>0.05045084178830019</v>
       </c>
       <c r="T37">
-        <v>0.0468838430620885</v>
+        <v>0.05045084178830019</v>
       </c>
     </row>
   </sheetData>
